--- a/电商数据字典.xlsx
+++ b/电商数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>模块</t>
   </si>
@@ -164,6 +164,84 @@
   </si>
   <si>
     <t>创建人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>订单表</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>支付方式编号</t>
+  </si>
+  <si>
+    <t>物流编号</t>
+  </si>
+  <si>
+    <t>付款方式</t>
+  </si>
+  <si>
+    <t>1-支付宝 2-微信 3-银联</t>
+  </si>
+  <si>
+    <t>配送类型</t>
+  </si>
+  <si>
+    <t>1-自提 2-外送</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>0-待付款 1-待发货 2-待收货   3-交易成功 4-交易关闭</t>
+  </si>
+  <si>
+    <t>订单价格</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>订单产品表</t>
+  </si>
+  <si>
+    <t>订单产品表编号</t>
+  </si>
+  <si>
+    <t>收货地址表</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>收货人姓名</t>
+  </si>
+  <si>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>详细地址</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>手机号</t>
   </si>
 </sst>
 </file>
@@ -171,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,6 +265,121 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,94 +393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,35 +406,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -344,115 +422,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,67 +590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,45 +613,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -588,26 +627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +654,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,137 +733,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,11 +873,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1120,14 +1207,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="H1:K26"/>
+  <dimension ref="H1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="16.125" customWidth="1"/>
     <col min="11" max="11" width="29.75" customWidth="1"/>
@@ -1137,13 +1226,13 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1240,7 +1329,7 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
@@ -1252,7 +1341,7 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K10" t="s">
@@ -1455,12 +1544,295 @@
         <v>49</v>
       </c>
     </row>
+    <row r="28" ht="32" customHeight="1" spans="8:11">
+      <c r="H28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H30" s="3"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H31" s="3"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H32" s="3"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H33" s="3"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H34" s="3"/>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" ht="50" customHeight="1" spans="8:11">
+      <c r="H35" s="3"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H36" s="3"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" ht="17.5" customHeight="1" spans="8:10">
+      <c r="H37" s="3"/>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" ht="17.5" customHeight="1" spans="8:10">
+      <c r="H38" s="3"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H40" s="3"/>
+      <c r="I40" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H41" s="3"/>
+      <c r="I41" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" ht="17.5" customHeight="1" spans="8:10">
+      <c r="H43" s="3"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" ht="17.5" customHeight="1" spans="8:10">
+      <c r="H44" s="3"/>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="17.5" customHeight="1" spans="8:10">
+      <c r="H45" s="3"/>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="17.5" customHeight="1" spans="8:10">
+      <c r="H46" s="3"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="17.5" customHeight="1" spans="8:10">
+      <c r="H47" s="3"/>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" ht="17.5" customHeight="1" spans="8:11">
+      <c r="H48" s="3"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" ht="17.5" customHeight="1"/>
+    <row r="50" ht="17.5" customHeight="1"/>
+    <row r="51" ht="17.5" customHeight="1"/>
+    <row r="52" ht="17.5" customHeight="1"/>
+    <row r="53" ht="17.5" customHeight="1"/>
+    <row r="54" ht="17.5" customHeight="1"/>
+    <row r="55" ht="17.5" customHeight="1"/>
+    <row r="56" ht="17.5" customHeight="1"/>
+    <row r="57" ht="17.5" customHeight="1"/>
+    <row r="58" ht="17.5" customHeight="1"/>
+    <row r="59" ht="17.5" customHeight="1"/>
+    <row r="60" ht="17.5" customHeight="1"/>
+    <row r="61" ht="17.5" customHeight="1"/>
+    <row r="62" ht="17.5" customHeight="1"/>
+    <row r="63" ht="17.5" customHeight="1"/>
+    <row r="64" ht="17.5" customHeight="1"/>
+    <row r="65" ht="17.5" customHeight="1"/>
+    <row r="66" ht="17.5" customHeight="1"/>
+    <row r="67" ht="17.5" customHeight="1"/>
+    <row r="68" ht="17.5" customHeight="1"/>
+    <row r="69" ht="17.5" customHeight="1"/>
+    <row r="70" ht="17.5" customHeight="1"/>
+    <row r="71" ht="17.5" customHeight="1"/>
+    <row r="72" ht="17.5" customHeight="1"/>
+    <row r="73" ht="17.5" customHeight="1"/>
+    <row r="74" ht="17.5" customHeight="1"/>
+    <row r="75" ht="17.5" customHeight="1"/>
+    <row r="76" ht="17.5" customHeight="1"/>
+    <row r="77" ht="17.5" customHeight="1"/>
+    <row r="78" ht="17.5" customHeight="1"/>
+    <row r="79" ht="17.5" customHeight="1"/>
+    <row r="80" ht="17.5" customHeight="1"/>
+    <row r="81" ht="17.5" customHeight="1"/>
+    <row r="82" ht="17.5" customHeight="1"/>
+    <row r="83" ht="17.5" customHeight="1"/>
+    <row r="84" ht="17.5" customHeight="1"/>
+    <row r="85" ht="17.5" customHeight="1"/>
+    <row r="86" ht="17.5" customHeight="1"/>
+    <row r="87" ht="17.5" customHeight="1"/>
+    <row r="88" ht="17.5" customHeight="1"/>
+    <row r="89" ht="17.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="H2:H8"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="H13:H16"/>
     <mergeCell ref="H17:H26"/>
+    <mergeCell ref="H29:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
